--- a/biology/Botanique/Cephalomanes_javanicum/Cephalomanes_javanicum.xlsx
+++ b/biology/Botanique/Cephalomanes_javanicum/Cephalomanes_javanicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalomanes javanicum  est une espèce de fougères de la famille des Hyménophyllacées. 
 Synonyme : Trichomanes javanicum Blume L'index du jardin botanique de Missouri attribue comme auteur à cette espèce Roelof Benjamin van den Bosch, vraisemblablement à tort
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce dispose des principales caractéristiques du genre, c'est-à-dire :
 les limbes des frondes divisés une fois
@@ -551,7 +565,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été principalement trouvée en Indonésie, mais les variétés s'étendent à l'Asie (Chine, Japon et Vietnam) et aux Philippines.
 </t>
@@ -582,7 +598,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs belles photographies sont disponibles :
 - sur Phytoimages :
@@ -620,9 +638,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est utilisée de manière occasionnelle comme plante d'aquarium : elle ne peut cependant survivre qu'un temps limité à une immersion complète. En revanche, elle est mieux adaptée en plante de terrarium tropical à faible luminosité[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est utilisée de manière occasionnelle comme plante d'aquarium : elle ne peut cependant survivre qu'un temps limité à une immersion complète. En revanche, elle est mieux adaptée en plante de terrarium tropical à faible luminosité.
 </t>
         </is>
       </c>
